--- a/biology/Zoologie/Cerberus_(genre)/Cerberus_(genre).xlsx
+++ b/biology/Zoologie/Cerberus_(genre)/Cerberus_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cerberus est un genre de serpents de la famille des Homalopsidae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie du Sud, en Asie du Sud-Est et en Océanie.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces serpents sont totalement aquatiques et vivent principalement dans les estuaires. Leurs nourritures est constituée de poissons et de crustacés marins.
 Les mâles mesurent jusqu'à 75 cm tandis que les femelles atteignent 1 mètre de longueur. Ils sont ovovivipares.
@@ -575,9 +591,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Reptile Database   (18 décembre 2012)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Reptile Database   (18 décembre 2012) :
 Cerberus australis (Gray, 1842)
 Cerberus dunsoni Murphy, Voris &amp; Karns, 2012
 Cerberus microlepis Boulenger, 1896
@@ -613,7 +631,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cuvier, 1829 : Le Règne Animal Distribué, d'après son Organisation, pour servir de base à l'Histoire naturelle des Animaux et d'introduction à l'Anatomie Comparé. Nouvelle Edition [second edition]. Vol. 2. Les Reptiles. Déterville, Paris, p. 1-406 (texte intégral).</t>
         </is>
